--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Enums.TASK_ACTION.UnlockNextDay</t>
+  </si>
+  <si>
+    <t>2,4</t>
   </si>
 </sst>
 </file>
@@ -988,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="58.5555555555556" customWidth="1"/>
@@ -1065,6 +1068,17 @@
       </c>
       <c r="C6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>2,4</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.EnterActing</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.ExitActing</t>
   </si>
 </sst>
 </file>
@@ -991,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="58.5555555555556" customWidth="1"/>
@@ -1079,6 +1085,28 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -36,28 +36,13 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.RemoveInteraction</t>
+    <t>Enums.TASK_ACTION.StartGame</t>
   </si>
   <si>
-    <t>2,2</t>
+    <t>Enums.TASK_ACTION.Teleport</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.AddInteraction</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.UnlockNextDay</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.EnterActing</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.ExitActing</t>
+    <t>Enums.TASK_ACTION.Chat</t>
   </si>
 </sst>
 </file>
@@ -997,17 +982,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="58.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="54.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="41.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1039,8 +1024,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1048,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1059,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1072,8 +1057,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1083,8 +1068,8 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1092,10 +1077,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1103,10 +1088,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -36,19 +49,64 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>Enums.TASK_ACTION.UnlockNextDay</t>
+  </si>
+  <si>
     <t>Enums.TASK_ACTION.StartGame</t>
   </si>
   <si>
+    <t>Enums.TASK_ACTION.None</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.Chat</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.RemoveInteraction</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.AddInteraction</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.ChangeNPCPosition</t>
+  </si>
+  <si>
+    <t>1,2,1</t>
+  </si>
+  <si>
     <t>Enums.TASK_ACTION.Teleport</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.Chat</t>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>1,16</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.UnlockInteraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -664,12 +722,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -982,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1019,93 +1080,481 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A3:C25">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Enums.TASK_ACTION.UnlockInteraction</t>
+  </si>
+  <si>
+    <t>Enums.TASK_ACTION.TriggerTask</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1549,6 +1552,17 @@
       </c>
       <c r="C45">
         <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,61 +49,13 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.UnlockNextDay</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.StartGame</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.None</t>
-  </si>
-  <si>
     <t>Enums.TASK_ACTION.Chat</t>
   </si>
   <si>
-    <t>Enums.TASK_ACTION.RemoveInteraction</t>
+    <t>10000</t>
   </si>
   <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.AddInteraction</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.ChangeNPCPosition</t>
-  </si>
-  <si>
-    <t>1,2,1</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.Teleport</t>
-  </si>
-  <si>
-    <t>1,11</t>
-  </si>
-  <si>
-    <t>1,14</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>1,18</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.UnlockInteraction</t>
-  </si>
-  <si>
-    <t>Enums.TASK_ACTION.TriggerTask</t>
+    <t>Enums.TASK_ACTION.CompleteTask</t>
   </si>
 </sst>
 </file>
@@ -269,12 +221,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -601,7 +559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,16 +583,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -643,97 +601,103 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1060,515 +1024,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="C5" s="4">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="C7" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" s="4">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C9" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="C11" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
+      <c r="C14" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
+      <c r="C16" s="4">
+        <v>10047</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
+      <c r="C17" s="4">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10052</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C25">
-    <sortCondition ref="A3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -221,12 +221,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -559,7 +565,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,16 +589,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -601,89 +607,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +697,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1010,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1024,24 +1033,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1052,7 +1061,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1063,7 +1072,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1000</v>
       </c>
     </row>
@@ -1074,7 +1083,7 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>10007</v>
       </c>
     </row>
@@ -1085,7 +1094,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>10008</v>
       </c>
     </row>
@@ -1096,7 +1105,7 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>1001</v>
       </c>
     </row>
@@ -1107,7 +1116,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>10011</v>
       </c>
     </row>
@@ -1118,7 +1127,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>1002</v>
       </c>
     </row>
@@ -1129,7 +1138,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>10014</v>
       </c>
     </row>
@@ -1140,7 +1149,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>1003</v>
       </c>
     </row>
@@ -1151,7 +1160,7 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>10030</v>
       </c>
     </row>
@@ -1162,7 +1171,7 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>10035</v>
       </c>
     </row>
@@ -1173,7 +1182,7 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>1004</v>
       </c>
     </row>
@@ -1184,7 +1193,7 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>1100</v>
       </c>
     </row>
@@ -1195,7 +1204,7 @@
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>10047</v>
       </c>
     </row>
@@ -1206,7 +1215,7 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>1005</v>
       </c>
     </row>
@@ -1217,8 +1226,41 @@
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>10052</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:3">
+      <c r="A21" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,15 @@
   <si>
     <t>Enums.TASK_ACTION.CompleteTask</t>
   </si>
+  <si>
+    <t>Enums.TASK_ACTION.EnterGame</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,13 +708,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,38 +1043,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="41.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="20.2222222222222" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1061,7 +1085,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1072,7 +1096,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -1083,7 +1107,7 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>10007</v>
       </c>
     </row>
@@ -1094,7 +1118,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>10008</v>
       </c>
     </row>
@@ -1105,7 +1129,7 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1001</v>
       </c>
     </row>
@@ -1116,7 +1140,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>10011</v>
       </c>
     </row>
@@ -1127,7 +1151,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>1002</v>
       </c>
     </row>
@@ -1138,7 +1162,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>10014</v>
       </c>
     </row>
@@ -1149,7 +1173,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>1003</v>
       </c>
     </row>
@@ -1160,7 +1184,7 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>10030</v>
       </c>
     </row>
@@ -1171,7 +1195,7 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>10035</v>
       </c>
     </row>
@@ -1182,7 +1206,7 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>1004</v>
       </c>
     </row>
@@ -1193,7 +1217,7 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>1100</v>
       </c>
     </row>
@@ -1204,7 +1228,7 @@
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>10047</v>
       </c>
     </row>
@@ -1215,7 +1239,7 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>1005</v>
       </c>
     </row>
@@ -1226,7 +1250,7 @@
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>10052</v>
       </c>
     </row>
@@ -1237,7 +1261,7 @@
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>10053</v>
       </c>
     </row>
@@ -1248,22 +1272,267 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>10068</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
+    <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1">
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>1101</v>
       </c>
     </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:3">
+      <c r="A26" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:3">
+      <c r="A27" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:3">
+      <c r="A28" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:3">
+      <c r="A29" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:3">
+      <c r="A30" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:3">
+      <c r="A31" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:3">
+      <c r="A32" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:3">
+      <c r="A33" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:3">
+      <c r="A34" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <v>20070</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:3">
+      <c r="A35" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:3">
+      <c r="A36" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:3">
+      <c r="A37" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:3">
+      <c r="A38" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:3">
+      <c r="A39" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:3">
+      <c r="A40" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:3">
+      <c r="A41" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20350</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:3">
+      <c r="A42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:3">
+      <c r="A43" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A4:C36">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   <si>
     <t>6,4</t>
   </si>
+  <si>
+    <t>Enums.TASK_ACTION.UnlockNotes</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +249,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +589,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,16 +613,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -616,89 +631,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,30 +721,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,38 +1064,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="39.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="41.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="20.2222222222222" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.8849557522124" customWidth="1"/>
+    <col min="2" max="2" width="41.7787610619469" customWidth="1"/>
+    <col min="3" max="3" width="20.2212389380531" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1085,7 +1106,7 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1096,7 +1117,7 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>1000</v>
       </c>
     </row>
@@ -1107,7 +1128,7 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>10007</v>
       </c>
     </row>
@@ -1118,7 +1139,7 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>10008</v>
       </c>
     </row>
@@ -1129,7 +1150,7 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>1001</v>
       </c>
     </row>
@@ -1140,7 +1161,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>10011</v>
       </c>
     </row>
@@ -1151,7 +1172,7 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>1002</v>
       </c>
     </row>
@@ -1162,7 +1183,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>10014</v>
       </c>
     </row>
@@ -1173,7 +1194,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>1003</v>
       </c>
     </row>
@@ -1184,7 +1205,7 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>10030</v>
       </c>
     </row>
@@ -1195,7 +1216,7 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>10035</v>
       </c>
     </row>
@@ -1206,7 +1227,7 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>1004</v>
       </c>
     </row>
@@ -1217,7 +1238,7 @@
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>1100</v>
       </c>
     </row>
@@ -1228,7 +1249,7 @@
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>10047</v>
       </c>
     </row>
@@ -1239,7 +1260,7 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>1005</v>
       </c>
     </row>
@@ -1250,7 +1271,7 @@
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>10052</v>
       </c>
     </row>
@@ -1261,7 +1282,7 @@
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>10053</v>
       </c>
     </row>
@@ -1272,7 +1293,7 @@
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>10068</v>
       </c>
     </row>
@@ -1283,7 +1304,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>1101</v>
       </c>
     </row>
@@ -1294,7 +1315,7 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>10038</v>
       </c>
     </row>
@@ -1305,7 +1326,7 @@
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1316,7 +1337,7 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>1006</v>
       </c>
     </row>
@@ -1327,7 +1348,7 @@
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>1013</v>
       </c>
     </row>
@@ -1338,7 +1359,7 @@
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>20000</v>
       </c>
     </row>
@@ -1349,7 +1370,7 @@
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>201</v>
       </c>
     </row>
@@ -1371,7 +1392,7 @@
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>20002</v>
       </c>
     </row>
@@ -1382,7 +1403,7 @@
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>20008</v>
       </c>
     </row>
@@ -1393,7 +1414,7 @@
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="10">
         <v>202</v>
       </c>
     </row>
@@ -1404,7 +1425,7 @@
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>2100</v>
       </c>
     </row>
@@ -1415,7 +1436,7 @@
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>2001</v>
       </c>
     </row>
@@ -1426,7 +1447,7 @@
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>20070</v>
       </c>
     </row>
@@ -1437,7 +1458,7 @@
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>20300</v>
       </c>
     </row>
@@ -1448,7 +1469,7 @@
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>2002</v>
       </c>
     </row>
@@ -1459,7 +1480,7 @@
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="10">
         <v>2101</v>
       </c>
     </row>
@@ -1470,7 +1491,7 @@
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>20200</v>
       </c>
     </row>
@@ -1481,7 +1502,7 @@
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1492,7 +1513,7 @@
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>2003</v>
       </c>
     </row>
@@ -1503,7 +1524,7 @@
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="10">
         <v>20350</v>
       </c>
     </row>
@@ -1514,7 +1535,7 @@
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="10">
         <v>2004</v>
       </c>
     </row>
@@ -1525,8 +1546,228 @@
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="10">
         <v>2005</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:3">
+      <c r="A44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:3">
+      <c r="A45" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10">
+        <v>20040</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:3">
+      <c r="A46" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="10">
+        <v>20057</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:3">
+      <c r="A47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:3">
+      <c r="A48" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:3">
+      <c r="A49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10">
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:3">
+      <c r="A50" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="10">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:3">
+      <c r="A51" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:3">
+      <c r="A52" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="11">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:3">
+      <c r="A53" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="11">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:3">
+      <c r="A54" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="11">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:3">
+      <c r="A55" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="11">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:3">
+      <c r="A56" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="11">
+        <v>10105</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:3">
+      <c r="A57" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="11">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:3">
+      <c r="A58" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="1:3">
+      <c r="A59" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:3">
+      <c r="A60" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" spans="1:3">
+      <c r="A61" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="1" spans="1:3">
+      <c r="A62" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="12">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="63" s="4" customFormat="1" spans="1:3">
+      <c r="A63" s="4">
+        <v>3005</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="12">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1789,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1565,7 +1806,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Designs/General/Action.xlsx
+++ b/Assets/Designs/General/Action.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -1064,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1768,6 +1768,39 @@
       </c>
       <c r="C63" s="12">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" spans="1:3">
+      <c r="A64" s="4">
+        <v>3006</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="12">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="65" s="4" customFormat="1" spans="1:3">
+      <c r="A65" s="4">
+        <v>3007</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="12">
+        <v>30040</v>
+      </c>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="1:3">
+      <c r="A66" s="4">
+        <v>3008</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="12">
+        <v>3001</v>
       </c>
     </row>
   </sheetData>
